--- a/ru/post/20200311-eucast-2020/eucast2020_ab_list.xlsx
+++ b/ru/post/20200311-eucast-2020/eucast2020_ab_list.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Запрос" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Запрос">Запрос!$A$1:$C$94</definedName>
+    <definedName name="Запрос">Запрос!$A$1:$C$88</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
   <si>
     <t>antibiotic_sir</t>
   </si>
@@ -42,19 +42,25 @@
     <t>amikacin_dd</t>
   </si>
   <si>
+    <t>amoxicillin oral_sir</t>
+  </si>
+  <si>
     <t>amoxicillin oral_mic</t>
   </si>
   <si>
     <t>amoxicillin oral_dd</t>
   </si>
   <si>
+    <t>amoxicillin_sir</t>
+  </si>
+  <si>
     <t>amoxicillin_mic</t>
   </si>
   <si>
     <t>amoxicillin_dd</t>
   </si>
   <si>
-    <t>amoxicillin_sir</t>
+    <t>amoxicillin-clavulanic acid oral_sir</t>
   </si>
   <si>
     <t>amoxicillin-clavulanic acid oral_mic</t>
@@ -63,21 +69,24 @@
     <t>amoxicillin-clavulanic acid oral_dd</t>
   </si>
   <si>
+    <t>amoxicillin-clavulanic acid uncomp-uti-only_sir</t>
+  </si>
+  <si>
     <t>amoxicillin-clavulanic acid uncomp-uti-only_mic</t>
   </si>
   <si>
     <t>amoxicillin-clavulanic acid uncomp-uti-only_dd</t>
   </si>
   <si>
+    <t>amoxicillin-clavulanic acid_sir</t>
+  </si>
+  <si>
     <t>amoxicillin-clavulanic acid_mic</t>
   </si>
   <si>
     <t>amoxicillin-clavulanic acid_dd</t>
   </si>
   <si>
-    <t>amoxicillin-clavulanic acid_sir</t>
-  </si>
-  <si>
     <t>ampicillin_sir</t>
   </si>
   <si>
@@ -123,21 +132,24 @@
     <t>bedaquiline_dd</t>
   </si>
   <si>
+    <t>benzylpenicillin meningitis_sir</t>
+  </si>
+  <si>
     <t>benzylpenicillin meningitis_mic</t>
   </si>
   <si>
     <t>benzylpenicillin meningitis_dd</t>
   </si>
   <si>
+    <t>benzylpenicillin_sir</t>
+  </si>
+  <si>
     <t>benzylpenicillin_mic</t>
   </si>
   <si>
     <t>benzylpenicillin_dd</t>
   </si>
   <si>
-    <t>benzylpenicillin_sir</t>
-  </si>
-  <si>
     <t>cefaclor_sir</t>
   </si>
   <si>
@@ -219,21 +231,24 @@
     <t>cefpodoxime_dd</t>
   </si>
   <si>
+    <t>ceftaroline pneumonia_sir</t>
+  </si>
+  <si>
     <t>ceftaroline pneumonia_mic</t>
   </si>
   <si>
     <t>ceftaroline pneumonia_dd</t>
   </si>
   <si>
+    <t>ceftaroline_sir</t>
+  </si>
+  <si>
     <t>ceftaroline_mic</t>
   </si>
   <si>
     <t>ceftaroline_dd</t>
   </si>
   <si>
-    <t>ceftaroline_sir</t>
-  </si>
-  <si>
     <t>ceftazidime_sir</t>
   </si>
   <si>
@@ -288,21 +303,24 @@
     <t>ceftriaxone_dd</t>
   </si>
   <si>
+    <t>cefuroxime oral_sir</t>
+  </si>
+  <si>
     <t>cefuroxime oral_mic</t>
   </si>
   <si>
     <t>cefuroxime oral_dd</t>
   </si>
   <si>
+    <t>cefuroxime_sir</t>
+  </si>
+  <si>
     <t>cefuroxime_mic</t>
   </si>
   <si>
     <t>cefuroxime_dd</t>
   </si>
   <si>
-    <t>cefuroxime_sir</t>
-  </si>
-  <si>
     <t>chloramphenicol_sir</t>
   </si>
   <si>
@@ -501,19 +519,22 @@
     <t>mecillinam_dd</t>
   </si>
   <si>
+    <t>meropenem meningitis_sir</t>
+  </si>
+  <si>
     <t>meropenem meningitis_mic</t>
   </si>
   <si>
     <t>meropenem meningitis_dd</t>
   </si>
   <si>
+    <t>meropenem_sir</t>
+  </si>
+  <si>
     <t>meropenem_mic</t>
   </si>
   <si>
     <t>meropenem_dd</t>
-  </si>
-  <si>
-    <t>meropenem_sir</t>
   </si>
   <si>
     <t>meropenem-vaborbactam_sir</t>
@@ -799,21 +820,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -829,6 +841,17 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -863,6 +886,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -887,30 +923,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -926,13 +938,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -948,10 +960,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1257,1054 +1269,988 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>34</v>
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>40</v>
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>43</v>
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>49</v>
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>52</v>
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>55</v>
+      <c r="A23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>58</v>
+      <c r="A24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>61</v>
+      <c r="A25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>64</v>
+      <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>66</v>
+      <c r="A27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>68</v>
+      <c r="A28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>68</v>
+      <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>72</v>
+      <c r="A30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>75</v>
+      <c r="A31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>78</v>
+      <c r="A32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>81</v>
+      <c r="A33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>84</v>
+      <c r="A34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>87</v>
+      <c r="A35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>89</v>
+      <c r="A36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>91</v>
+      <c r="A37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>91</v>
+      <c r="A38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>95</v>
+      <c r="A39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>98</v>
+      <c r="A40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>101</v>
+      <c r="A41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>104</v>
+      <c r="A42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>107</v>
+      <c r="A43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>110</v>
+      <c r="A44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>113</v>
+      <c r="A45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>116</v>
+      <c r="A46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>119</v>
+      <c r="A47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>122</v>
+      <c r="A48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>125</v>
+      <c r="A49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>128</v>
+      <c r="A50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>131</v>
+      <c r="A51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>134</v>
+      <c r="A52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>137</v>
+      <c r="A53" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>140</v>
+      <c r="A54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>143</v>
+      <c r="A55" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>146</v>
+      <c r="A56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>149</v>
+      <c r="A57" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>152</v>
+      <c r="A58" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>155</v>
+      <c r="A59" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>158</v>
+      <c r="A60" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>160</v>
+      <c r="A61" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>162</v>
+      <c r="A62" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>162</v>
+      <c r="A63" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>166</v>
+      <c r="A64" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>169</v>
+      <c r="A65" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>172</v>
+      <c r="A66" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>175</v>
+      <c r="A67" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>178</v>
+      <c r="A68" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>181</v>
+      <c r="A69" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>184</v>
+      <c r="A70" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>187</v>
+      <c r="A71" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>190</v>
+      <c r="A72" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>193</v>
+      <c r="A73" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>196</v>
+      <c r="A74" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>199</v>
+      <c r="A75" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>202</v>
+      <c r="A76" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>205</v>
+      <c r="A77" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>208</v>
+      <c r="A78" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>211</v>
+      <c r="A79" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>214</v>
+      <c r="A80" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>217</v>
+      <c r="A81" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>220</v>
+      <c r="A82" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>223</v>
+      <c r="A83" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>226</v>
+      <c r="A84" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>229</v>
+      <c r="A85" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>232</v>
+      <c r="A86" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>256</v>
+      <c r="A87" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>